--- a/examples/advanced_01/reporting engine input/ObservedData/Hardin_88_PO_200mg_QD_day15_Itra.xlsx
+++ b/examples/advanced_01/reporting engine input/ObservedData/Hardin_88_PO_200mg_QD_day15_Itra.xlsx
@@ -19,10 +19,10 @@
     <t>time  [h]</t>
   </si>
   <si>
-    <t>conc S.D. [mg/l]</t>
+    <t>conc  [mg/l]</t>
   </si>
   <si>
-    <t>conc  [mg/l]</t>
+    <t>conc S.D. [mg/l]</t>
   </si>
 </sst>
 </file>
@@ -142,10 +142,10 @@
         <v>360.5</v>
       </c>
       <c r="B2" s="15">
+        <v>0.40699997544288635</v>
+      </c>
+      <c r="C2" s="15">
         <v>0.2070000022649765</v>
-      </c>
-      <c r="C2" s="15">
-        <v>0.40699997544288635</v>
       </c>
     </row>
     <row r="3">
@@ -153,10 +153,10 @@
         <v>361</v>
       </c>
       <c r="B3" s="15">
+        <v>0.56400001049041748</v>
+      </c>
+      <c r="C3" s="15">
         <v>0.26000002026557922</v>
-      </c>
-      <c r="C3" s="15">
-        <v>0.56400001049041748</v>
       </c>
     </row>
     <row r="4">
@@ -164,10 +164,10 @@
         <v>362</v>
       </c>
       <c r="B4" s="15">
+        <v>0.8200000524520874</v>
+      </c>
+      <c r="C4" s="15">
         <v>0.33100000023841858</v>
-      </c>
-      <c r="C4" s="15">
-        <v>0.8200000524520874</v>
       </c>
     </row>
     <row r="5">
@@ -175,10 +175,10 @@
         <v>363</v>
       </c>
       <c r="B5" s="15">
+        <v>0.99000000953674316</v>
+      </c>
+      <c r="C5" s="15">
         <v>0.38300001621246338</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0.99000000953674316</v>
       </c>
     </row>
     <row r="6">
@@ -186,10 +186,10 @@
         <v>364</v>
       </c>
       <c r="B6" s="15">
+        <v>1.0279999971389771</v>
+      </c>
+      <c r="C6" s="15">
         <v>0.44699999690055847</v>
-      </c>
-      <c r="C6" s="15">
-        <v>1.0279999971389771</v>
       </c>
     </row>
     <row r="7">
@@ -197,10 +197,10 @@
         <v>366</v>
       </c>
       <c r="B7" s="15">
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="C7" s="15">
         <v>0.37299999594688416</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0.82200002670288086</v>
       </c>
     </row>
     <row r="8">
@@ -208,10 +208,10 @@
         <v>368</v>
       </c>
       <c r="B8" s="15">
+        <v>0.86400002241134644</v>
+      </c>
+      <c r="C8" s="15">
         <v>0.56000000238418579</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0.86400002241134644</v>
       </c>
     </row>
     <row r="9">
@@ -219,10 +219,10 @@
         <v>372</v>
       </c>
       <c r="B9" s="15">
+        <v>0.55700004100799561</v>
+      </c>
+      <c r="C9" s="15">
         <v>0.19200000166893005</v>
-      </c>
-      <c r="C9" s="15">
-        <v>0.55700004100799561</v>
       </c>
     </row>
     <row r="10">
@@ -230,10 +230,10 @@
         <v>376</v>
       </c>
       <c r="B10" s="15">
+        <v>0.5350000262260437</v>
+      </c>
+      <c r="C10" s="15">
         <v>0.25099998712539673</v>
-      </c>
-      <c r="C10" s="15">
-        <v>0.5350000262260437</v>
       </c>
     </row>
     <row r="11">
@@ -241,10 +241,10 @@
         <v>384</v>
       </c>
       <c r="B11" s="15">
+        <v>0.41899999976158142</v>
+      </c>
+      <c r="C11" s="15">
         <v>0.17899999022483826</v>
-      </c>
-      <c r="C11" s="15">
-        <v>0.41899999976158142</v>
       </c>
     </row>
     <row r="12">
@@ -252,10 +252,10 @@
         <v>408</v>
       </c>
       <c r="B12" s="15">
+        <v>0.26800000667572021</v>
+      </c>
+      <c r="C12" s="15">
         <v>0.12200000137090683</v>
-      </c>
-      <c r="C12" s="15">
-        <v>0.26800000667572021</v>
       </c>
     </row>
     <row r="13">
@@ -263,10 +263,10 @@
         <v>432</v>
       </c>
       <c r="B13" s="15">
+        <v>0.21400000154972076</v>
+      </c>
+      <c r="C13" s="15">
         <v>0.12700000405311584</v>
-      </c>
-      <c r="C13" s="15">
-        <v>0.21400000154972076</v>
       </c>
     </row>
   </sheetData>
